--- a/Actitime/data/TestScript.xlsx
+++ b/Actitime/data/TestScript.xlsx
@@ -3,19 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c07e914d1be9f939/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC10486089DA71325BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{548643BC-6A20-4033-863D-4054D83BCE5E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{625A9385-46FD-43E0-AD97-6150BB25EFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:S15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Sl No.</t>
   </si>
@@ -49,12 +46,72 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Ranbir</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Aarya</t>
+  </si>
+  <si>
+    <t>Kapoor</t>
+  </si>
+  <si>
+    <t>Khan</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Karma</t>
+  </si>
+  <si>
+    <t>8143</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>efgh</t>
+  </si>
+  <si>
+    <t>ijkl</t>
+  </si>
+  <si>
+    <t>mnop</t>
+  </si>
+  <si>
+    <t>qrst</t>
+  </si>
+  <si>
+    <t>yzAB</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>ABDC</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,9 +147,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -420,4 +479,147 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB528D3-1A9F-4296-84D7-15DC129FC585}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>